--- a/SchedulingData/dynamic13/pso/scheduling2_4.xlsx
+++ b/SchedulingData/dynamic13/pso/scheduling2_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,74 +466,74 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>226.54</v>
+        <v>218.1</v>
       </c>
       <c r="D2" t="n">
-        <v>273.52</v>
+        <v>262.96</v>
       </c>
       <c r="E2" t="n">
-        <v>13.308</v>
+        <v>15.364</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>273.52</v>
+        <v>244.02</v>
       </c>
       <c r="D3" t="n">
-        <v>322.88</v>
+        <v>292.46</v>
       </c>
       <c r="E3" t="n">
-        <v>9.512</v>
+        <v>12.404</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>229.64</v>
+        <v>208.26</v>
       </c>
       <c r="D4" t="n">
-        <v>295.4</v>
+        <v>260.04</v>
       </c>
       <c r="E4" t="n">
-        <v>14.48</v>
+        <v>13.636</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>226.5</v>
+        <v>260.04</v>
       </c>
       <c r="D5" t="n">
-        <v>282.56</v>
+        <v>304.78</v>
       </c>
       <c r="E5" t="n">
-        <v>13.904</v>
+        <v>10.292</v>
       </c>
     </row>
     <row r="6">
@@ -542,74 +542,74 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>248.96</v>
+        <v>234.66</v>
       </c>
       <c r="D6" t="n">
-        <v>318.96</v>
+        <v>299.06</v>
       </c>
       <c r="E6" t="n">
-        <v>12.704</v>
+        <v>12.204</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>268.14</v>
+        <v>216.72</v>
       </c>
       <c r="D7" t="n">
-        <v>337.24</v>
+        <v>269.32</v>
       </c>
       <c r="E7" t="n">
-        <v>11.876</v>
+        <v>15.128</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>295.4</v>
+        <v>299.06</v>
       </c>
       <c r="D8" t="n">
-        <v>339.92</v>
+        <v>360.12</v>
       </c>
       <c r="E8" t="n">
-        <v>12.148</v>
+        <v>9.708</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>282.56</v>
+        <v>360.12</v>
       </c>
       <c r="D9" t="n">
-        <v>319.32</v>
+        <v>399.64</v>
       </c>
       <c r="E9" t="n">
-        <v>10.868</v>
+        <v>7.376</v>
       </c>
     </row>
     <row r="10">
@@ -618,36 +618,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>337.24</v>
+        <v>304.78</v>
       </c>
       <c r="D10" t="n">
-        <v>396.32</v>
+        <v>354.4</v>
       </c>
       <c r="E10" t="n">
-        <v>9.068</v>
+        <v>7.96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>396.32</v>
+        <v>262.96</v>
       </c>
       <c r="D11" t="n">
-        <v>441.64</v>
+        <v>333.46</v>
       </c>
       <c r="E11" t="n">
-        <v>6.156</v>
+        <v>10.944</v>
       </c>
     </row>
     <row r="12">
@@ -656,109 +656,109 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>319.32</v>
+        <v>292.46</v>
       </c>
       <c r="D12" t="n">
-        <v>385.04</v>
+        <v>359.56</v>
       </c>
       <c r="E12" t="n">
-        <v>6.916</v>
+        <v>9.324</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>339.92</v>
+        <v>359.56</v>
       </c>
       <c r="D13" t="n">
-        <v>387.92</v>
+        <v>402.06</v>
       </c>
       <c r="E13" t="n">
-        <v>8.968</v>
+        <v>6.204</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>214.34</v>
+        <v>354.4</v>
       </c>
       <c r="D14" t="n">
-        <v>279.7</v>
+        <v>427.04</v>
       </c>
       <c r="E14" t="n">
-        <v>13.18</v>
+        <v>3.816</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>385.04</v>
+        <v>333.46</v>
       </c>
       <c r="D15" t="n">
-        <v>429.84</v>
+        <v>388.06</v>
       </c>
       <c r="E15" t="n">
-        <v>4.056</v>
+        <v>7.104</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>429.84</v>
+        <v>427.04</v>
       </c>
       <c r="D16" t="n">
-        <v>522.24</v>
+        <v>486.02</v>
       </c>
       <c r="E16" t="n">
-        <v>0.416</v>
+        <v>1.008</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>522.24</v>
+        <v>486.02</v>
       </c>
       <c r="D17" t="n">
-        <v>627.8099999999999</v>
+        <v>555.9</v>
       </c>
       <c r="E17" t="n">
         <v>30</v>
@@ -766,78 +766,78 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>627.8099999999999</v>
+        <v>388.06</v>
       </c>
       <c r="D18" t="n">
-        <v>680.3099999999999</v>
+        <v>440.08</v>
       </c>
       <c r="E18" t="n">
-        <v>26.92</v>
+        <v>4.512</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>279.7</v>
+        <v>213.44</v>
       </c>
       <c r="D19" t="n">
-        <v>347.4</v>
+        <v>278.76</v>
       </c>
       <c r="E19" t="n">
-        <v>9.539999999999999</v>
+        <v>12.324</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>441.64</v>
+        <v>402.06</v>
       </c>
       <c r="D20" t="n">
-        <v>521.4</v>
+        <v>459.06</v>
       </c>
       <c r="E20" t="n">
-        <v>3.78</v>
+        <v>3.124</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>521.4</v>
+        <v>399.64</v>
       </c>
       <c r="D21" t="n">
-        <v>600.28</v>
+        <v>444.64</v>
       </c>
       <c r="E21" t="n">
-        <v>0.972</v>
+        <v>4.516</v>
       </c>
     </row>
     <row r="22">
@@ -846,74 +846,74 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>600.28</v>
+        <v>555.9</v>
       </c>
       <c r="D22" t="n">
-        <v>665.34</v>
+        <v>596.5599999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>30</v>
+        <v>27.624</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>347.4</v>
+        <v>440.08</v>
       </c>
       <c r="D23" t="n">
-        <v>396.98</v>
+        <v>480.04</v>
       </c>
       <c r="E23" t="n">
-        <v>6.212</v>
+        <v>2.136</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>665.34</v>
+        <v>269.32</v>
       </c>
       <c r="D24" t="n">
-        <v>721.0599999999999</v>
+        <v>316.5</v>
       </c>
       <c r="E24" t="n">
-        <v>27.088</v>
+        <v>11.54</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>318.96</v>
+        <v>316.5</v>
       </c>
       <c r="D25" t="n">
-        <v>384.16</v>
+        <v>377.06</v>
       </c>
       <c r="E25" t="n">
-        <v>10.284</v>
+        <v>8.124000000000001</v>
       </c>
     </row>
     <row r="26">
@@ -922,150 +922,150 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>396.98</v>
+        <v>377.06</v>
       </c>
       <c r="D26" t="n">
-        <v>490.54</v>
+        <v>433.12</v>
       </c>
       <c r="E26" t="n">
-        <v>1.956</v>
+        <v>4.148</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>490.54</v>
+        <v>278.76</v>
       </c>
       <c r="D27" t="n">
-        <v>563.53</v>
+        <v>339.84</v>
       </c>
       <c r="E27" t="n">
-        <v>30</v>
+        <v>9.356</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>680.3099999999999</v>
+        <v>480.04</v>
       </c>
       <c r="D28" t="n">
-        <v>742.11</v>
+        <v>552.77</v>
       </c>
       <c r="E28" t="n">
-        <v>24.84</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>721.0599999999999</v>
+        <v>552.77</v>
       </c>
       <c r="D29" t="n">
-        <v>765.78</v>
+        <v>608.49</v>
       </c>
       <c r="E29" t="n">
-        <v>24.756</v>
+        <v>27.088</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>322.88</v>
+        <v>459.06</v>
       </c>
       <c r="D30" t="n">
-        <v>367.26</v>
+        <v>496.86</v>
       </c>
       <c r="E30" t="n">
-        <v>6.704</v>
+        <v>0.964</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>384.16</v>
+        <v>496.86</v>
       </c>
       <c r="D31" t="n">
-        <v>439.84</v>
+        <v>566.83</v>
       </c>
       <c r="E31" t="n">
-        <v>7.316</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>367.26</v>
+        <v>339.84</v>
       </c>
       <c r="D32" t="n">
-        <v>424.36</v>
+        <v>382.54</v>
       </c>
       <c r="E32" t="n">
-        <v>2.624</v>
+        <v>6.716</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>563.53</v>
+        <v>596.5599999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>635.91</v>
+        <v>634.88</v>
       </c>
       <c r="E33" t="n">
-        <v>26.412</v>
+        <v>24.432</v>
       </c>
     </row>
     <row r="34">
@@ -1074,207 +1074,188 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>387.92</v>
+        <v>382.54</v>
       </c>
       <c r="D34" t="n">
-        <v>460.5</v>
+        <v>444.64</v>
       </c>
       <c r="E34" t="n">
-        <v>5.32</v>
+        <v>2.636</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>460.5</v>
+        <v>433.12</v>
       </c>
       <c r="D35" t="n">
-        <v>525.46</v>
+        <v>469.88</v>
       </c>
       <c r="E35" t="n">
-        <v>2.944</v>
+        <v>1.112</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>439.84</v>
+        <v>469.88</v>
       </c>
       <c r="D36" t="n">
-        <v>482.54</v>
+        <v>564.0599999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>4.676</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>635.91</v>
+        <v>444.64</v>
       </c>
       <c r="D37" t="n">
-        <v>693.51</v>
+        <v>504.64</v>
       </c>
       <c r="E37" t="n">
-        <v>24.252</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>482.54</v>
+        <v>504.64</v>
       </c>
       <c r="D38" t="n">
-        <v>541</v>
+        <v>605.61</v>
       </c>
       <c r="E38" t="n">
-        <v>1.94</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>541</v>
+        <v>566.83</v>
       </c>
       <c r="D39" t="n">
-        <v>628.72</v>
+        <v>601.91</v>
       </c>
       <c r="E39" t="n">
-        <v>30</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>525.46</v>
+        <v>444.64</v>
       </c>
       <c r="D40" t="n">
-        <v>585.52</v>
+        <v>496.34</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5679999999999999</v>
+        <v>2.436</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>585.52</v>
+        <v>601.91</v>
       </c>
       <c r="D41" t="n">
-        <v>661.38</v>
+        <v>660.91</v>
       </c>
       <c r="E41" t="n">
-        <v>30</v>
+        <v>23.892</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>424.36</v>
+        <v>564.0599999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>491.48</v>
+        <v>609.14</v>
       </c>
       <c r="E42" t="n">
-        <v>0.032</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>491.48</v>
+        <v>605.61</v>
       </c>
       <c r="D43" t="n">
-        <v>578.22</v>
+        <v>644.41</v>
       </c>
       <c r="E43" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>6</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>pond20</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>628.72</v>
-      </c>
-      <c r="D44" t="n">
-        <v>685.28</v>
-      </c>
-      <c r="E44" t="n">
-        <v>27.504</v>
+        <v>26.82</v>
       </c>
     </row>
   </sheetData>
